--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F04548-A7E7-E848-8045-2DC13E8BEA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5CE6B-01EF-554D-8532-C1864BE56669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,54 @@
   </si>
   <si>
     <t>나얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국카스텐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠딩에그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닐라어쿠스틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼빨간사춘기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이날치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠씨더맥스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC더맥스 MCTHEMAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선미</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -469,6 +517,62 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5CE6B-01EF-554D-8532-C1864BE56669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D795BF-E5CB-2B42-918B-F90CEF05F2CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>선미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qx4xDFP2WDU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f5ShDNOqq1E</t>
+  </si>
+  <si>
+    <t>윤종신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>va5rf20Un24</t>
+  </si>
+  <si>
+    <t>x98m3GwFTXY</t>
+  </si>
+  <si>
+    <t>dI8NZsjRyGk</t>
+  </si>
+  <si>
+    <t>김경호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -508,31 +532,73 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
@@ -541,16 +607,31 @@
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
@@ -559,18 +640,153 @@
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="D13" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D795BF-E5CB-2B42-918B-F90CEF05F2CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3AE3A-BA09-BA4C-B93D-DB32C416ED04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,26 @@
   </si>
   <si>
     <t>김경호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -683,83 +703,98 @@
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3AE3A-BA09-BA4C-B93D-DB32C416ED04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B10259-125B-F84A-B1CC-AE20614A839C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -147,6 +147,26 @@
   </si>
   <si>
     <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박완규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박효신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소향</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +543,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -743,25 +763,40 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B10259-125B-F84A-B1CC-AE20614A839C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B8012-309D-D644-9985-9BB023D1E7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +167,54 @@
   </si>
   <si>
     <t>소향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임창정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔나비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스커버스커</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크튭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임영웅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벜벜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카더가든</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +591,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -727,7 +775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -735,7 +783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -743,7 +791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -751,7 +799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -759,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -767,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -775,7 +823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -783,7 +831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -791,7 +839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -799,64 +847,103 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B8012-309D-D644-9985-9BB023D1E7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EB6680-973F-6141-B8C9-43ABE6924FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
+    <workbookView xWindow="28800" yWindow="3100" windowWidth="19200" windowHeight="14900" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -216,6 +216,41 @@
   <si>
     <t>백지영</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yypk2c44trA</t>
+  </si>
+  <si>
+    <t>9U8uA702xrE</t>
+  </si>
+  <si>
+    <t>SmTRaSg2fTQ</t>
+  </si>
+  <si>
+    <t>mzYM9QKKWSg</t>
+  </si>
+  <si>
+    <t>oTXCgR93zC8</t>
+  </si>
+  <si>
+    <t>L15ZZX9n56M</t>
+  </si>
+  <si>
+    <t>H8YW1tlsmE8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>74P3lXHsxz0</t>
+  </si>
+  <si>
+    <t>크라잉넛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9xn5bfdT7Ec</t>
+  </si>
+  <si>
+    <t>DkLRNcMUTgc</t>
   </si>
 </sst>
 </file>
@@ -588,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -679,6 +714,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -687,6 +728,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
@@ -698,6 +745,12 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
@@ -706,6 +759,12 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>47</v>
+      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
@@ -731,6 +790,12 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -739,6 +804,12 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -747,6 +818,12 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
@@ -755,6 +832,12 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
@@ -763,6 +846,12 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
@@ -771,6 +860,12 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
@@ -944,6 +1039,14 @@
       </c>
       <c r="D37" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EB6680-973F-6141-B8C9-43ABE6924FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF38D5D-CC11-4C44-B0E6-86D8DE9D1CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3100" windowWidth="19200" windowHeight="14900" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>DkLRNcMUTgc</t>
+  </si>
+  <si>
+    <t>pC6tPEaAiYU</t>
+  </si>
+  <si>
+    <t>6HWxLhoF-40</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -874,6 +880,12 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -881,6 +893,12 @@
     <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF38D5D-CC11-4C44-B0E6-86D8DE9D1CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C326211E-5213-5842-B22B-7072E138989E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -257,6 +258,34 @@
   </si>
   <si>
     <t>6HWxLhoF-40</t>
+  </si>
+  <si>
+    <t>tQP-ONLL13U</t>
+  </si>
+  <si>
+    <t>mshUp6uJbcM</t>
+  </si>
+  <si>
+    <t>M15SI00umn4</t>
+  </si>
+  <si>
+    <t>CidaB6OtveI</t>
+  </si>
+  <si>
+    <t>-CF9-sCZPA4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OxgiiyLp5pk</t>
+  </si>
+  <si>
+    <t>k5WqGIPjqtc</t>
+  </si>
+  <si>
+    <t>wKyMIrBClYw</t>
+  </si>
+  <si>
+    <t>dEIULaQgGiQ</t>
   </si>
 </sst>
 </file>
@@ -308,11 +337,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -908,6 +940,12 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -916,6 +954,12 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
@@ -924,6 +968,12 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21" t="s">
         <v>31</v>
       </c>
@@ -932,6 +982,12 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
@@ -940,6 +996,12 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23" t="s">
         <v>33</v>
       </c>
@@ -948,6 +1010,12 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24">
+        <v>73</v>
+      </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -956,6 +1024,12 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
       <c r="D25" t="s">
         <v>35</v>
       </c>
@@ -964,6 +1038,12 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
       <c r="D26" t="s">
         <v>36</v>
       </c>
@@ -972,6 +1052,12 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -1070,5 +1156,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C326211E-5213-5842-B22B-7072E138989E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB10221A-4F2F-E14C-A2BA-0A2DA7E1DA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -286,13 +286,25 @@
   </si>
   <si>
     <t>dEIULaQgGiQ</t>
+  </si>
+  <si>
+    <t>G1-0LRmLA5g</t>
+  </si>
+  <si>
+    <t>9T_uq_HpfyQ</t>
+  </si>
+  <si>
+    <t>6V8fc3IeZ20</t>
+  </si>
+  <si>
+    <t>dmSUBdk4SY4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +321,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -332,12 +353,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,9 +371,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,7 +692,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1066,6 +1094,12 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
@@ -1074,6 +1108,12 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
@@ -1082,6 +1122,12 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
@@ -1092,6 +1138,12 @@
     <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31">
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB10221A-4F2F-E14C-A2BA-0A2DA7E1DA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B7549-0B7D-9541-AA30-D816E7AD3F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -272,10 +272,6 @@
     <t>CidaB6OtveI</t>
   </si>
   <si>
-    <t>-CF9-sCZPA4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OxgiiyLp5pk</t>
   </si>
   <si>
@@ -298,6 +294,27 @@
   </si>
   <si>
     <t>dmSUBdk4SY4</t>
+  </si>
+  <si>
+    <t>L9ro1KjkJMg</t>
+  </si>
+  <si>
+    <t>NEAwZaYIQ4A</t>
+  </si>
+  <si>
+    <t>OK7w9poCfiI</t>
+  </si>
+  <si>
+    <t>WlVxEZy85m8</t>
+  </si>
+  <si>
+    <t>GAdFpZHTh1I</t>
+  </si>
+  <si>
+    <t>EAWHtXQpYX4</t>
+  </si>
+  <si>
+    <t>tNi3R2diJ2k</t>
   </si>
 </sst>
 </file>
@@ -689,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1025,7 +1042,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1039,7 +1056,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>73</v>
@@ -1053,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>29</v>
@@ -1067,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -1081,7 +1098,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1095,7 +1112,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -1109,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1123,7 +1140,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -1140,7 +1157,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>42</v>
@@ -1153,6 +1170,12 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
@@ -1161,6 +1184,12 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
@@ -1169,6 +1198,12 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
       <c r="D34" t="s">
         <v>45</v>
       </c>
@@ -1177,31 +1212,41 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36">
+        <v>70</v>
+      </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="D37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B7549-0B7D-9541-AA30-D816E7AD3F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2140E13A-26A7-004B-B412-A7B0C4A9E3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MC더맥스 MCTHEMAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>볼사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,6 +311,14 @@
   </si>
   <si>
     <t>tNi3R2diJ2k</t>
+  </si>
+  <si>
+    <t>MC더맥스 MCTHEMAX 앰맥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -708,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -742,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>52</v>
@@ -756,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -770,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>73</v>
@@ -784,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -798,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -812,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -821,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -829,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -843,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>47</v>
@@ -857,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -866,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -874,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -888,13 +892,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -902,13 +906,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -916,13 +920,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -930,13 +934,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -944,13 +948,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -958,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -972,13 +976,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -986,13 +990,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1000,13 +1004,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1014,13 +1018,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1028,13 +1032,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1042,13 +1046,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1056,13 +1060,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1070,13 +1074,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1084,13 +1088,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1098,13 +1102,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1112,13 +1116,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1126,13 +1133,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1140,16 +1147,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1157,13 +1164,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1171,13 +1178,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1185,13 +1192,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1199,13 +1206,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1213,13 +1220,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1227,13 +1234,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1241,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2140E13A-26A7-004B-B412-A7B0C4A9E3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD3918D-07A7-5D47-9B0F-1A12AC38426B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -274,15 +274,9 @@
     <t>k5WqGIPjqtc</t>
   </si>
   <si>
-    <t>wKyMIrBClYw</t>
-  </si>
-  <si>
     <t>dEIULaQgGiQ</t>
   </si>
   <si>
-    <t>G1-0LRmLA5g</t>
-  </si>
-  <si>
     <t>9T_uq_HpfyQ</t>
   </si>
   <si>
@@ -319,6 +313,24 @@
   <si>
     <t>소주</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>델리스파이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rXUxbaUkHus</t>
+  </si>
+  <si>
+    <t>조규현 풍양조규현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ihnzsr9yUEI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sF9sv9lT83A</t>
   </si>
 </sst>
 </file>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -870,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1040,13 +1052,16 @@
       <c r="D22" t="s">
         <v>31</v>
       </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1088,10 +1103,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -1102,7 +1117,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1116,16 +1131,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1133,7 +1148,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1147,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -1164,7 +1179,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>42</v>
@@ -1178,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>20</v>
@@ -1187,12 +1202,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1201,12 +1216,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -1215,12 +1230,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1228,13 +1243,16 @@
       <c r="D35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>70</v>
@@ -1243,18 +1261,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD3918D-07A7-5D47-9B0F-1A12AC38426B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6C6AD3-2565-6248-9A8B-CE8E264B5B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -271,9 +271,6 @@
     <t>OxgiiyLp5pk</t>
   </si>
   <si>
-    <t>k5WqGIPjqtc</t>
-  </si>
-  <si>
     <t>dEIULaQgGiQ</t>
   </si>
   <si>
@@ -326,11 +323,129 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ihnzsr9yUEI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sF9sv9lT83A</t>
+  </si>
+  <si>
+    <t>LYZ7gdFkmcs</t>
+  </si>
+  <si>
+    <t>Asmt-dgB-64</t>
+  </si>
+  <si>
+    <t>노브레인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노라조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kFv1IQLekU0</t>
+  </si>
+  <si>
+    <t>ao58vQDMVlQ</t>
+  </si>
+  <si>
+    <t>허각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3xdfBwFb2DU</t>
+  </si>
+  <si>
+    <t>어반자카파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5_O38Bpeto</t>
+  </si>
+  <si>
+    <t>자우림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리필터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmq2k0MkZ0g</t>
+  </si>
+  <si>
+    <t>김종국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안예은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qvJ1FHRR1n8</t>
+  </si>
+  <si>
+    <t>HkQ6HvW9nrA</t>
+  </si>
+  <si>
+    <t>김상민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리상자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스지워너비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG워너비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zJfF_41gOk8</t>
+  </si>
+  <si>
+    <t>xhj-xbO6Yvs</t>
+  </si>
+  <si>
+    <t>xZdTzNLmCN8</t>
+  </si>
+  <si>
+    <t>LneGd_itknE</t>
+  </si>
+  <si>
+    <t>URdpWdfTlao</t>
+  </si>
+  <si>
+    <t>김태우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pBRZzsO3L3o</t>
+  </si>
+  <si>
+    <t>토이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swM_GL06CxM</t>
+  </si>
+  <si>
+    <t>l5BgC6iwLNA</t>
+  </si>
+  <si>
+    <t>윤하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FZpYfZiBEaU</t>
   </si>
 </sst>
 </file>
@@ -722,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="84" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -882,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1061,7 +1176,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1089,10 +1204,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -1117,7 +1232,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1131,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>85</v>
@@ -1140,7 +1255,7 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1148,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1162,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -1179,7 +1294,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>42</v>
@@ -1193,7 +1308,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>20</v>
@@ -1207,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1221,7 +1336,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -1235,7 +1350,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1244,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1252,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>70</v>
@@ -1266,7 +1381,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1280,13 +1395,240 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6C6AD3-2565-6248-9A8B-CE8E264B5B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0619F0-5F99-7544-8086-BFA15735615E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>딘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>산들</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,12 +319,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sF9sv9lT83A</t>
-  </si>
-  <si>
-    <t>LYZ7gdFkmcs</t>
-  </si>
-  <si>
     <t>Asmt-dgB-64</t>
   </si>
   <si>
@@ -446,6 +436,16 @@
   </si>
   <si>
     <t>FZpYfZiBEaU</t>
+  </si>
+  <si>
+    <t>P0Lb9CqfrK8</t>
+  </si>
+  <si>
+    <t>노을</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nso7yIr8QVM</t>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="84" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -960,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>47</v>
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1103,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>73</v>
@@ -1204,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>68</v>
@@ -1218,13 +1218,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C26">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1232,13 +1232,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1246,16 +1246,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C28">
         <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1263,13 +1263,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1277,16 +1277,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1294,13 +1294,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1308,13 +1308,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1322,13 +1322,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1336,13 +1336,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1367,13 +1367,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1381,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1395,13 +1395,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1409,13 +1409,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1423,13 +1423,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1451,13 +1451,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1465,13 +1465,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1507,13 +1507,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1521,13 +1521,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C47">
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1535,13 +1535,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C48">
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1549,13 +1549,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C49">
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1563,13 +1563,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1594,13 +1594,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1608,13 +1608,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C53">
         <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1622,13 +1622,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0619F0-5F99-7544-8086-BFA15735615E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A66047-BCD0-8542-A2C0-E45D7C5A6A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A66047-BCD0-8542-A2C0-E45D7C5A6A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156AD8F9-7584-DD46-B757-11FFCE4895AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마크튭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>임영웅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -395,10 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SG워너비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zJfF_41gOk8</t>
   </si>
   <si>
@@ -446,6 +438,14 @@
   </si>
   <si>
     <t>Nso7yIr8QVM</t>
+  </si>
+  <si>
+    <t>SG워너비 sg워너비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크툽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -960,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>47</v>
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1103,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>73</v>
@@ -1204,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>68</v>
@@ -1218,13 +1218,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26">
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1232,7 +1232,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>85</v>
@@ -1255,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1263,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1277,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -1286,7 +1286,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1294,13 +1294,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1308,13 +1308,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1322,13 +1322,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1336,13 +1336,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1367,13 +1367,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1381,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1395,13 +1395,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1409,13 +1409,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1423,13 +1423,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1451,13 +1451,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1465,13 +1465,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1507,13 +1507,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1521,13 +1521,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1535,13 +1535,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1549,13 +1549,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1563,13 +1563,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1594,13 +1594,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1608,13 +1608,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53">
         <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1622,13 +1622,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156AD8F9-7584-DD46-B757-11FFCE4895AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27832BE3-6E85-1F45-870E-19AC8F22481B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -445,6 +445,10 @@
   </si>
   <si>
     <t>마크툽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -839,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1487,6 +1491,9 @@
       <c r="D44" t="s">
         <v>89</v>
       </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">

--- a/Questions/Kpop.xlsx
+++ b/Questions/Kpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27832BE3-6E85-1F45-870E-19AC8F22481B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5928D8B-59C3-F24E-84A3-0029AEC85481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FCFFE160-7E7A-7D43-884F-B1C8E6562C0E}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE90B0-B9DA-C240-8DC8-0306D80CDE5D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
